--- a/TehtävälistaGGJ2016.xlsx
+++ b/TehtävälistaGGJ2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeviPaa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeviPaa\Documents\GitHub\FGJ-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>Tehtävälista GGJ2016</t>
   </si>
@@ -96,18 +96,9 @@
     <t>Vihollisten tekstuurit (normaali, palanut, jäätynyt)</t>
   </si>
   <si>
-    <t>Game controller (hahmon health, kuolema)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vihollisten spawnerit </t>
   </si>
   <si>
-    <t>Vihollisten behaviour</t>
-  </si>
-  <si>
-    <t>Vihollisten status effects ja vaikutus käytökseen (palaa, jäätyy)</t>
-  </si>
-  <si>
     <t>Vihollisten malli ja animaatiot (hyökkäys, kävely, kuolema)</t>
   </si>
   <si>
@@ -132,31 +123,34 @@
     <t>Kohdistettava isku, maahan indikaattori.</t>
   </si>
   <si>
-    <t>Ukkonen</t>
-  </si>
-  <si>
-    <t>Hahmo ampuu salaman joka haarukoituu lähimpiin vihollisiin</t>
-  </si>
-  <si>
-    <t>Hidastaa vihollisten liikettä</t>
-  </si>
-  <si>
     <t>Jäät jäävät hetkeksi ja sulavat pois</t>
   </si>
   <si>
     <t>cooldown 10s</t>
   </si>
   <si>
-    <t>combot:</t>
-  </si>
-  <si>
-    <t>Jäätyneiden vihollisten salamoittaminen rikkoo jään ja tekee enemmän vahinkoa</t>
-  </si>
-  <si>
-    <t>Jäätyneiden vihollisten liekittäminen sytyttää ne tuleen ja hidastaa</t>
-  </si>
-  <si>
-    <t>UI: skillbar, toiminnallisesti.</t>
+    <t>UI: skillbar, toiminnallisesti. (klikkaamalla tai numeronäppäimellä pelaaja valitsee kyvyn)</t>
+  </si>
+  <si>
+    <t>Puu:</t>
+  </si>
+  <si>
+    <t>Maasta tulee juuria jotka hidastavat vihollisia isolla alueella pelaajan ympärillä</t>
+  </si>
+  <si>
+    <t>Rituaaliympyrät joille healt</t>
+  </si>
+  <si>
+    <t>Vihollisten behaviour (kävelee rituaaliympyrään ja muuttuu sieluksi)</t>
+  </si>
+  <si>
+    <t>Game controller (rituaalin health, kuolema)</t>
+  </si>
+  <si>
+    <t>Kun elementin ympyrä katoaa, pelaaja menettää kyseisen kyvyn</t>
+  </si>
+  <si>
+    <t>VFX, rituaaliympyrän sprite ja efektit</t>
   </si>
 </sst>
 </file>
@@ -198,7 +192,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -252,76 +246,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -604,7 +528,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +588,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -678,7 +602,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -692,7 +616,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -706,7 +630,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -720,7 +644,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -733,6 +657,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
@@ -756,7 +683,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -770,7 +697,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -784,7 +711,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -798,13 +725,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -823,10 +750,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -834,7 +764,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -845,7 +775,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -856,7 +786,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -867,7 +797,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -907,9 +837,6 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
@@ -926,9 +853,6 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
@@ -937,9 +861,6 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
@@ -948,9 +869,6 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
